--- a/GIT_1.xlsx
+++ b/GIT_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meet\Desktop\Fresh Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F638101C-014B-4528-9AED-52E91C94427D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D85EAAC-477B-4EC6-9B0D-D293A22C285B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DD0DCDD6-7F4D-4225-A8B3-18E534FED700}"/>
+    <workbookView xWindow="28680" yWindow="2985" windowWidth="20730" windowHeight="11040" xr2:uid="{DD0DCDD6-7F4D-4225-A8B3-18E534FED700}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -124,7 +124,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -230,7 +230,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -372,7 +372,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5898D9-5D43-4B2B-BD7F-2A540279FFF6}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +404,57 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>SUM(A4:A12)</f>
+        <v>2395</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GIT_1.xlsx
+++ b/GIT_1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meet\Desktop\Fresh Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D85EAAC-477B-4EC6-9B0D-D293A22C285B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11B9157-8B43-43CE-AF8A-13173D5543CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2985" windowWidth="20730" windowHeight="11040" xr2:uid="{DD0DCDD6-7F4D-4225-A8B3-18E534FED700}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ENAME" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +32,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>er</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -81,6 +90,871 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ENAME!$A$1:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A94-4552-B56A-B1A0C5E08A4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1456133823"/>
+        <c:axId val="1456134783"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1456133823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456134783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1456134783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456133823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C9FBB0-4253-4920-A637-374B1B829F4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,7 +1257,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,19 +1283,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>34</v>
-      </c>
-    </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>34</v>
+      <c r="A7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -436,7 +1305,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>767</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -452,7 +1321,39 @@
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>SUM(A4:A12)</f>
-        <v>2395</v>
+        <v>1583</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D132F8-A7DC-4D27-A8CB-238BEA52C00D}">
+  <dimension ref="B5:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>F13+U786</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/GIT_1.xlsx
+++ b/GIT_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meet\Desktop\Fresh Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11B9157-8B43-43CE-AF8A-13173D5543CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5B9FC9-42B1-4318-972E-566D4DED1019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2985" windowWidth="20730" windowHeight="11040" xr2:uid="{DD0DCDD6-7F4D-4225-A8B3-18E534FED700}"/>
   </bookViews>
@@ -35,11 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>er</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -165,30 +161,6 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23</c:v>
-                </c:pt>
                 <c:pt idx="10">
                   <c:v>787</c:v>
                 </c:pt>
@@ -196,7 +168,7 @@
                   <c:v>677</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1583</c:v>
+                  <c:v>1464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1257,7 +1229,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,47 +1237,6 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>SUM(A1:A2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -1321,7 +1252,7 @@
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>SUM(A4:A12)</f>
-        <v>1583</v>
+        <v>1464</v>
       </c>
     </row>
   </sheetData>
